--- a/заказы/филиалы и опт/2024/03,24/22,03,24 Ост СЫР филиалы/дв 22,03,24 млрсч ост сыр от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/03,24/22,03,24 Ост СЫР филиалы/дв 22,03,24 млрсч ост сыр от Зверева.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\03,24\22,03,24 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6D430B-2979-4B85-BAD4-4287CAA69078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C5A878-B3A4-47A2-B93E-6056D3DC457D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1381,11 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BA498"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1630,7 @@
       <c r="AZ3" s="3"/>
       <c r="BA3" s="3"/>
     </row>
-    <row r="4" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1700,7 +1699,7 @@
       <c r="AZ4" s="3"/>
       <c r="BA4" s="3"/>
     </row>
-    <row r="5" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1803,7 +1802,7 @@
       <c r="AZ5" s="3"/>
       <c r="BA5" s="3"/>
     </row>
-    <row r="6" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1905,7 +1904,7 @@
       <c r="AZ6" s="3"/>
       <c r="BA6" s="3"/>
     </row>
-    <row r="7" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1998,7 +1997,7 @@
       <c r="AZ7" s="3"/>
       <c r="BA7" s="3"/>
     </row>
-    <row r="8" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -2098,7 +2097,7 @@
       <c r="AZ8" s="3"/>
       <c r="BA8" s="3"/>
     </row>
-    <row r="9" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -2198,7 +2197,7 @@
       <c r="AZ9" s="3"/>
       <c r="BA9" s="3"/>
     </row>
-    <row r="10" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -2390,7 +2389,7 @@
       <c r="AZ11" s="3"/>
       <c r="BA11" s="3"/>
     </row>
-    <row r="12" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>37</v>
       </c>
@@ -2598,7 +2597,7 @@
       <c r="AZ13" s="3"/>
       <c r="BA13" s="3"/>
     </row>
-    <row r="14" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -2897,7 +2896,7 @@
       <c r="AZ16" s="3"/>
       <c r="BA16" s="3"/>
     </row>
-    <row r="17" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -3187,7 +3186,7 @@
       <c r="AZ19" s="3"/>
       <c r="BA19" s="3"/>
     </row>
-    <row r="20" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -3289,7 +3288,7 @@
       <c r="AZ20" s="3"/>
       <c r="BA20" s="3"/>
     </row>
-    <row r="21" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -3389,7 +3388,7 @@
       <c r="AZ21" s="3"/>
       <c r="BA21" s="3"/>
     </row>
-    <row r="22" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
@@ -3493,7 +3492,7 @@
       <c r="AZ22" s="3"/>
       <c r="BA22" s="3"/>
     </row>
-    <row r="23" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>48</v>
       </c>
@@ -3593,7 +3592,7 @@
       <c r="AZ23" s="3"/>
       <c r="BA23" s="3"/>
     </row>
-    <row r="24" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -3695,7 +3694,7 @@
       <c r="AZ24" s="3"/>
       <c r="BA24" s="3"/>
     </row>
-    <row r="25" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -3897,7 +3896,7 @@
       <c r="AZ26" s="3"/>
       <c r="BA26" s="3"/>
     </row>
-    <row r="27" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -4107,7 +4106,7 @@
       <c r="AZ28" s="3"/>
       <c r="BA28" s="3"/>
     </row>
-    <row r="29" spans="1:53" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>54</v>
       </c>
@@ -29968,13 +29967,7 @@
       <c r="BA498" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AA29" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="1,00"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AA29" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
